--- a/pumps/pumps/spreadsheets/conditions.xlsx
+++ b/pumps/pumps/spreadsheets/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/becca/Downloads/bart-master/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8486322ba2831d4b/Documentos/GitHub/OpenBrains/pumps/pumps/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8CFB8-E197-5547-B972-8DC828938231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{0CD8CFB8-E197-5547-B972-8DC828938231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A15DDF0-8803-47E8-A209-80E6EFF18BBB}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="640" windowWidth="27240" windowHeight="15120" xr2:uid="{F8A091EE-343B-AB44-8EAC-9B068F9BE8B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8A091EE-343B-AB44-8EAC-9B068F9BE8B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,8 +95,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,42 +396,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F9F63D-C306-CA4D-89A7-4B86FDF6EAFA}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A7:XFD11"/>
+      <selection activeCell="A12" sqref="A12:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>26</v>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
